--- a/data/pca/factorExposure/factorExposure_2015-02-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01864151022543289</v>
+        <v>0.01132963375926008</v>
       </c>
       <c r="C2">
-        <v>-0.03928796209314559</v>
+        <v>-0.05427681544746155</v>
       </c>
       <c r="D2">
-        <v>-0.1136861009322599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08437313286731896</v>
+      </c>
+      <c r="E2">
+        <v>-0.07734465337871253</v>
+      </c>
+      <c r="F2">
+        <v>0.03692061006455372</v>
+      </c>
+      <c r="G2">
+        <v>-0.1553345156754831</v>
+      </c>
+      <c r="H2">
+        <v>-0.03553868918946574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04516900918416076</v>
+        <v>0.02040441513439332</v>
       </c>
       <c r="C4">
-        <v>-0.08057990774036915</v>
+        <v>-0.1153011179098271</v>
       </c>
       <c r="D4">
-        <v>-0.08219477692754033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.09035887710141347</v>
+      </c>
+      <c r="E4">
+        <v>-0.08848844327791655</v>
+      </c>
+      <c r="F4">
+        <v>0.09665394648300218</v>
+      </c>
+      <c r="G4">
+        <v>-0.005853196767550538</v>
+      </c>
+      <c r="H4">
+        <v>0.06567573536478057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02921845038268559</v>
+        <v>0.03395558621095392</v>
       </c>
       <c r="C6">
-        <v>-0.02029065421703388</v>
+        <v>-0.03910649742906704</v>
       </c>
       <c r="D6">
-        <v>-0.08952080355443993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.070894348235058</v>
+      </c>
+      <c r="E6">
+        <v>-0.1094976825224601</v>
+      </c>
+      <c r="F6">
+        <v>0.04645124274095787</v>
+      </c>
+      <c r="G6">
+        <v>0.003873563918145008</v>
+      </c>
+      <c r="H6">
+        <v>-0.01770240733304498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003570243028351363</v>
+        <v>0.005802072341179422</v>
       </c>
       <c r="C7">
-        <v>-0.03315098450245248</v>
+        <v>-0.04571218165318553</v>
       </c>
       <c r="D7">
-        <v>-0.07380694831780041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05272002211256296</v>
+      </c>
+      <c r="E7">
+        <v>-0.09236485212588606</v>
+      </c>
+      <c r="F7">
+        <v>0.01190380171450556</v>
+      </c>
+      <c r="G7">
+        <v>0.003184545297351511</v>
+      </c>
+      <c r="H7">
+        <v>0.02996560153737675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0004623050790678319</v>
+        <v>-0.005132056699348962</v>
       </c>
       <c r="C8">
-        <v>-0.02938220862384289</v>
+        <v>-0.0375726208309128</v>
       </c>
       <c r="D8">
-        <v>-0.06467456074958355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04386039774956094</v>
+      </c>
+      <c r="E8">
+        <v>-0.06796545902326617</v>
+      </c>
+      <c r="F8">
+        <v>0.05487330210412643</v>
+      </c>
+      <c r="G8">
+        <v>-0.06603069873608938</v>
+      </c>
+      <c r="H8">
+        <v>0.04637092199652882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03383872571696502</v>
+        <v>0.01425199622843559</v>
       </c>
       <c r="C9">
-        <v>-0.06961225804822595</v>
+        <v>-0.09384223888875559</v>
       </c>
       <c r="D9">
-        <v>-0.08713467913088689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0786006650601096</v>
+      </c>
+      <c r="E9">
+        <v>-0.0775407992082088</v>
+      </c>
+      <c r="F9">
+        <v>0.06799106286992486</v>
+      </c>
+      <c r="G9">
+        <v>0.002331317199014578</v>
+      </c>
+      <c r="H9">
+        <v>0.01966828859736418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1986160040755476</v>
+        <v>0.2448131019210121</v>
       </c>
       <c r="C10">
-        <v>0.1551099985434852</v>
+        <v>0.09207326151925757</v>
       </c>
       <c r="D10">
-        <v>0.04851900468921119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009580958682329518</v>
+      </c>
+      <c r="E10">
+        <v>0.02926098864619659</v>
+      </c>
+      <c r="F10">
+        <v>0.03783293513340404</v>
+      </c>
+      <c r="G10">
+        <v>0.009589191663169471</v>
+      </c>
+      <c r="H10">
+        <v>0.007370497029963981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01072956184805167</v>
+        <v>0.009050355449422176</v>
       </c>
       <c r="C11">
-        <v>-0.04275632013647791</v>
+        <v>-0.0607077369491871</v>
       </c>
       <c r="D11">
-        <v>-0.04194739654133433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02727064673386509</v>
+      </c>
+      <c r="E11">
+        <v>-0.05265032062352309</v>
+      </c>
+      <c r="F11">
+        <v>-0.003341368691487127</v>
+      </c>
+      <c r="G11">
+        <v>0.006922705893824618</v>
+      </c>
+      <c r="H11">
+        <v>0.01207084256426135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01016308567244969</v>
+        <v>0.009625377871954322</v>
       </c>
       <c r="C12">
-        <v>-0.044789405552449</v>
+        <v>-0.0525280429605856</v>
       </c>
       <c r="D12">
-        <v>-0.04934233243030196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03287230765935178</v>
+      </c>
+      <c r="E12">
+        <v>-0.04324458375411474</v>
+      </c>
+      <c r="F12">
+        <v>-0.006514755692713363</v>
+      </c>
+      <c r="G12">
+        <v>0.004415736091564929</v>
+      </c>
+      <c r="H12">
+        <v>-0.01955287839266617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01031650434013983</v>
+        <v>0.004358906113884519</v>
       </c>
       <c r="C13">
-        <v>-0.03539999279573951</v>
+        <v>-0.06457691453636656</v>
       </c>
       <c r="D13">
-        <v>-0.1098431018866603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1174494466379207</v>
+      </c>
+      <c r="E13">
+        <v>-0.1029453226213964</v>
+      </c>
+      <c r="F13">
+        <v>0.02753039623924416</v>
+      </c>
+      <c r="G13">
+        <v>-0.05196076552746472</v>
+      </c>
+      <c r="H13">
+        <v>-0.07430854590754449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01248770891820818</v>
+        <v>0.002004217202105423</v>
       </c>
       <c r="C14">
-        <v>-0.02067840686417689</v>
+        <v>-0.03471078213839571</v>
       </c>
       <c r="D14">
-        <v>-0.05780457434812703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05570772289751044</v>
+      </c>
+      <c r="E14">
+        <v>-0.1092163705365031</v>
+      </c>
+      <c r="F14">
+        <v>0.0387395872131226</v>
+      </c>
+      <c r="G14">
+        <v>-0.02473049412429122</v>
+      </c>
+      <c r="H14">
+        <v>-0.02937319630512196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003136806428182963</v>
+        <v>-0.003642305578538154</v>
       </c>
       <c r="C15">
-        <v>-0.01255581690961543</v>
+        <v>-0.03119714505604494</v>
       </c>
       <c r="D15">
-        <v>-0.04621111330768955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05041078972117879</v>
+      </c>
+      <c r="E15">
+        <v>-0.05657636254835077</v>
+      </c>
+      <c r="F15">
+        <v>0.01232040513371859</v>
+      </c>
+      <c r="G15">
+        <v>-0.02022649354202326</v>
+      </c>
+      <c r="H15">
+        <v>0.01188665369192633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01068055842215797</v>
+        <v>0.008614498070601724</v>
       </c>
       <c r="C16">
-        <v>-0.04146748836370533</v>
+        <v>-0.053793958023522</v>
       </c>
       <c r="D16">
-        <v>-0.04571247960264693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03033822566602361</v>
+      </c>
+      <c r="E16">
+        <v>-0.04874550304099839</v>
+      </c>
+      <c r="F16">
+        <v>-0.005107451086722687</v>
+      </c>
+      <c r="G16">
+        <v>0.02163383117609532</v>
+      </c>
+      <c r="H16">
+        <v>-0.001319948617539062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003282393037695432</v>
+        <v>-0.004000574153960281</v>
       </c>
       <c r="C19">
-        <v>-0.02378229641977189</v>
+        <v>-0.0171946681765701</v>
       </c>
       <c r="D19">
-        <v>-0.0509546636255908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02789592561753508</v>
+      </c>
+      <c r="E19">
+        <v>-0.01091912280065523</v>
+      </c>
+      <c r="F19">
+        <v>0.009574489062983931</v>
+      </c>
+      <c r="G19">
+        <v>-0.02751153270627027</v>
+      </c>
+      <c r="H19">
+        <v>-0.009249373911013044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005243865977691174</v>
+        <v>0.004521090904399261</v>
       </c>
       <c r="C20">
-        <v>-0.0302634794650315</v>
+        <v>-0.04685201726565631</v>
       </c>
       <c r="D20">
-        <v>-0.05636859642500579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05839511403674746</v>
+      </c>
+      <c r="E20">
+        <v>-0.06666687251241032</v>
+      </c>
+      <c r="F20">
+        <v>0.02351036399889601</v>
+      </c>
+      <c r="G20">
+        <v>0.02004138987084846</v>
+      </c>
+      <c r="H20">
+        <v>0.02509659806997636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001819260207115326</v>
+        <v>0.002121128998533809</v>
       </c>
       <c r="C21">
-        <v>-0.03512122424341974</v>
+        <v>-0.04811748387751325</v>
       </c>
       <c r="D21">
-        <v>-0.08646398274008581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08677381678575839</v>
+      </c>
+      <c r="E21">
+        <v>-0.08984427581755028</v>
+      </c>
+      <c r="F21">
+        <v>0.1018929310113192</v>
+      </c>
+      <c r="G21">
+        <v>-0.08225888958376332</v>
+      </c>
+      <c r="H21">
+        <v>-0.07451789829754879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004842569046777354</v>
+        <v>-0.007492080932979949</v>
       </c>
       <c r="C22">
-        <v>-0.05483110878196065</v>
+        <v>-0.08458293851427648</v>
       </c>
       <c r="D22">
-        <v>-0.2013789265897711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1980750903683043</v>
+      </c>
+      <c r="E22">
+        <v>-0.1263243096124211</v>
+      </c>
+      <c r="F22">
+        <v>0.05342366621735632</v>
+      </c>
+      <c r="G22">
+        <v>-0.2098311274625581</v>
+      </c>
+      <c r="H22">
+        <v>0.1435388488574163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.005249056135279751</v>
+        <v>-0.00440009309483643</v>
       </c>
       <c r="C23">
-        <v>-0.05527319480562713</v>
+        <v>-0.08676069827907855</v>
       </c>
       <c r="D23">
-        <v>-0.2004692094740807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2015020405319839</v>
+      </c>
+      <c r="E23">
+        <v>-0.1237840932284504</v>
+      </c>
+      <c r="F23">
+        <v>0.05588826094047946</v>
+      </c>
+      <c r="G23">
+        <v>-0.2047043393278276</v>
+      </c>
+      <c r="H23">
+        <v>0.1365928651131356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.01667501132068146</v>
+        <v>0.0100944935179795</v>
       </c>
       <c r="C24">
-        <v>-0.06267010220353414</v>
+        <v>-0.07158991348526186</v>
       </c>
       <c r="D24">
-        <v>-0.0569341481359809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0276847806252364</v>
+      </c>
+      <c r="E24">
+        <v>-0.06020949092958666</v>
+      </c>
+      <c r="F24">
+        <v>-0.001055167243263377</v>
+      </c>
+      <c r="G24">
+        <v>-0.002638789906979152</v>
+      </c>
+      <c r="H24">
+        <v>0.006899954200318624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.016311458145316</v>
+        <v>0.01410951867656627</v>
       </c>
       <c r="C25">
-        <v>-0.05436748418519884</v>
+        <v>-0.06570124959122664</v>
       </c>
       <c r="D25">
-        <v>-0.0442213289170458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03166194866097945</v>
+      </c>
+      <c r="E25">
+        <v>-0.04282571904865601</v>
+      </c>
+      <c r="F25">
+        <v>-0.0003001577411243925</v>
+      </c>
+      <c r="G25">
+        <v>0.01166879824548338</v>
+      </c>
+      <c r="H25">
+        <v>0.003268040641381973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.005920205185286334</v>
+        <v>0.01732793225917307</v>
       </c>
       <c r="C26">
-        <v>-0.01994477135066294</v>
+        <v>-0.03318248530892554</v>
       </c>
       <c r="D26">
-        <v>-0.05011687844625842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03491475148488449</v>
+      </c>
+      <c r="E26">
+        <v>-0.0769336894172688</v>
+      </c>
+      <c r="F26">
+        <v>0.05108609238683974</v>
+      </c>
+      <c r="G26">
+        <v>-0.02360355724013387</v>
+      </c>
+      <c r="H26">
+        <v>-0.0002502484847791835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2789722471094994</v>
+        <v>0.3133902037327942</v>
       </c>
       <c r="C28">
-        <v>0.1678320487259042</v>
+        <v>0.09067200299406668</v>
       </c>
       <c r="D28">
-        <v>0.01095486348970188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00157250657872435</v>
+      </c>
+      <c r="E28">
+        <v>0.05497369160741999</v>
+      </c>
+      <c r="F28">
+        <v>0.04785815900483429</v>
+      </c>
+      <c r="G28">
+        <v>-0.05707404643138948</v>
+      </c>
+      <c r="H28">
+        <v>0.03487180374812009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004397187661038689</v>
+        <v>0.001076496492952704</v>
       </c>
       <c r="C29">
-        <v>-0.0237018283566769</v>
+        <v>-0.0405087108221512</v>
       </c>
       <c r="D29">
-        <v>-0.06096145939551213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06409838012798945</v>
+      </c>
+      <c r="E29">
+        <v>-0.1228617133347511</v>
+      </c>
+      <c r="F29">
+        <v>0.04297086619824381</v>
+      </c>
+      <c r="G29">
+        <v>-0.01283797016713995</v>
+      </c>
+      <c r="H29">
+        <v>-0.04396405142433356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02505621793916175</v>
+        <v>0.01651286349712147</v>
       </c>
       <c r="C30">
-        <v>-0.07587893653685733</v>
+        <v>-0.09985456502661669</v>
       </c>
       <c r="D30">
-        <v>-0.1385535544287615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09369063622855411</v>
+      </c>
+      <c r="E30">
+        <v>-0.1263261664170279</v>
+      </c>
+      <c r="F30">
+        <v>0.02339686883861049</v>
+      </c>
+      <c r="G30">
+        <v>-0.00125376531145283</v>
+      </c>
+      <c r="H30">
+        <v>0.02712152367782576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0322447387394288</v>
+        <v>0.01076289189129678</v>
       </c>
       <c r="C31">
-        <v>-0.08486264089771831</v>
+        <v>-0.09561361091996282</v>
       </c>
       <c r="D31">
-        <v>-0.04718497814368326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02250402554551134</v>
+      </c>
+      <c r="E31">
+        <v>-0.0326349825016499</v>
+      </c>
+      <c r="F31">
+        <v>0.02034157511237913</v>
+      </c>
+      <c r="G31">
+        <v>-0.01924548868489766</v>
+      </c>
+      <c r="H31">
+        <v>0.009660117547663955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01512135034914281</v>
+        <v>0.01341003099062889</v>
       </c>
       <c r="C32">
-        <v>-0.04333629469742888</v>
+        <v>-0.0525888489914546</v>
       </c>
       <c r="D32">
-        <v>-0.07242267013915007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07617726916310102</v>
+      </c>
+      <c r="E32">
+        <v>-0.02953740113420992</v>
+      </c>
+      <c r="F32">
+        <v>0.05491495134803719</v>
+      </c>
+      <c r="G32">
+        <v>-0.03817869364985842</v>
+      </c>
+      <c r="H32">
+        <v>-0.02287021729230847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.005011630249940465</v>
+        <v>0.006895776931834653</v>
       </c>
       <c r="C33">
-        <v>-0.04390773922882579</v>
+        <v>-0.06637864731877254</v>
       </c>
       <c r="D33">
-        <v>-0.08879733563138296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08226509936648016</v>
+      </c>
+      <c r="E33">
+        <v>-0.09298528630337187</v>
+      </c>
+      <c r="F33">
+        <v>0.0345904042895351</v>
+      </c>
+      <c r="G33">
+        <v>-0.006571862576341264</v>
+      </c>
+      <c r="H33">
+        <v>-0.003247176149479692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01251614125695899</v>
+        <v>0.008444351419534231</v>
       </c>
       <c r="C34">
-        <v>-0.06116047994136509</v>
+        <v>-0.06213217939153671</v>
       </c>
       <c r="D34">
-        <v>-0.05739096496766633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01400072103394645</v>
+      </c>
+      <c r="E34">
+        <v>-0.04432973999272943</v>
+      </c>
+      <c r="F34">
+        <v>-0.03316639052848259</v>
+      </c>
+      <c r="G34">
+        <v>-0.002351987488408178</v>
+      </c>
+      <c r="H34">
+        <v>-0.007555086399233595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0002750021221672074</v>
+        <v>0.004478661178378727</v>
       </c>
       <c r="C35">
-        <v>-0.001148134892494004</v>
+        <v>-0.01595612149469156</v>
       </c>
       <c r="D35">
-        <v>-0.001389772224812992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02740487789225301</v>
+      </c>
+      <c r="E35">
+        <v>-0.03293390409249189</v>
+      </c>
+      <c r="F35">
+        <v>0.02506014753599277</v>
+      </c>
+      <c r="G35">
+        <v>4.931719332622522e-05</v>
+      </c>
+      <c r="H35">
+        <v>-0.009137835231555922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006238483173169833</v>
+        <v>0.0114944900921336</v>
       </c>
       <c r="C36">
-        <v>-0.01140204586587052</v>
+        <v>-0.02567611497576712</v>
       </c>
       <c r="D36">
-        <v>-0.04948684134598761</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04733466888056569</v>
+      </c>
+      <c r="E36">
+        <v>-0.07034680071698403</v>
+      </c>
+      <c r="F36">
+        <v>0.05273232994830278</v>
+      </c>
+      <c r="G36">
+        <v>-0.009466367583029047</v>
+      </c>
+      <c r="H36">
+        <v>-0.003210497691415621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001465201616187343</v>
+        <v>0.007684717736365039</v>
       </c>
       <c r="C38">
-        <v>-0.01099614346414925</v>
+        <v>-0.02990118634494353</v>
       </c>
       <c r="D38">
-        <v>-0.07929820380841128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07280195883449764</v>
+      </c>
+      <c r="E38">
+        <v>-0.07061869345165048</v>
+      </c>
+      <c r="F38">
+        <v>0.01516009289079308</v>
+      </c>
+      <c r="G38">
+        <v>-0.02510403920228539</v>
+      </c>
+      <c r="H38">
+        <v>0.04499320666146443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01205132693462869</v>
+        <v>0.006984665824914833</v>
       </c>
       <c r="C39">
-        <v>-0.06183866620162197</v>
+        <v>-0.08820767992384163</v>
       </c>
       <c r="D39">
-        <v>-0.09959355175894509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06130979876956494</v>
+      </c>
+      <c r="E39">
+        <v>-0.1089193516864326</v>
+      </c>
+      <c r="F39">
+        <v>0.006045295909001189</v>
+      </c>
+      <c r="G39">
+        <v>-0.001236672432281062</v>
+      </c>
+      <c r="H39">
+        <v>0.002645779265731756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01484553416133425</v>
+        <v>0.01362124769757733</v>
       </c>
       <c r="C40">
-        <v>-0.03063434958334875</v>
+        <v>-0.04439879468204901</v>
       </c>
       <c r="D40">
-        <v>-0.1097295855786233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06516888061640934</v>
+      </c>
+      <c r="E40">
+        <v>-0.08441674652663285</v>
+      </c>
+      <c r="F40">
+        <v>-0.02781113683756684</v>
+      </c>
+      <c r="G40">
+        <v>-0.07110708553702003</v>
+      </c>
+      <c r="H40">
+        <v>-0.01179516367091431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008595594709555773</v>
+        <v>0.01723772457572982</v>
       </c>
       <c r="C41">
-        <v>-0.006953771475769285</v>
+        <v>-0.0249723488131737</v>
       </c>
       <c r="D41">
-        <v>-0.02301840461598886</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03428305784854505</v>
+      </c>
+      <c r="E41">
+        <v>-0.02486639351735074</v>
+      </c>
+      <c r="F41">
+        <v>0.02004626154806661</v>
+      </c>
+      <c r="G41">
+        <v>-0.002910518531288065</v>
+      </c>
+      <c r="H41">
+        <v>0.006889279480985937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003510304919356657</v>
+        <v>0.008270187664114938</v>
       </c>
       <c r="C43">
-        <v>-0.003953413273986158</v>
+        <v>-0.01874385762162744</v>
       </c>
       <c r="D43">
-        <v>-0.03798174771566229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04082863717208182</v>
+      </c>
+      <c r="E43">
+        <v>-0.041505331403936</v>
+      </c>
+      <c r="F43">
+        <v>0.02454044056550029</v>
+      </c>
+      <c r="G43">
+        <v>-0.00170510424427968</v>
+      </c>
+      <c r="H43">
+        <v>0.01804316589017346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01808875943122929</v>
+        <v>0.009418868948580494</v>
       </c>
       <c r="C44">
-        <v>-0.03345199483185443</v>
+        <v>-0.05321066804556996</v>
       </c>
       <c r="D44">
-        <v>-0.08195807799870237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07268057998457488</v>
+      </c>
+      <c r="E44">
+        <v>-0.09617932409373545</v>
+      </c>
+      <c r="F44">
+        <v>0.0388524780429641</v>
+      </c>
+      <c r="G44">
+        <v>-0.03325384056148811</v>
+      </c>
+      <c r="H44">
+        <v>0.02369380242106675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.002058990324451407</v>
+        <v>-0.0004297703427006936</v>
       </c>
       <c r="C46">
-        <v>-0.03236454522910234</v>
+        <v>-0.04297903945037383</v>
       </c>
       <c r="D46">
-        <v>-0.06600956001878197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04054677249361482</v>
+      </c>
+      <c r="E46">
+        <v>-0.09335158600166635</v>
+      </c>
+      <c r="F46">
+        <v>0.04082252794472197</v>
+      </c>
+      <c r="G46">
+        <v>-0.02358053693338264</v>
+      </c>
+      <c r="H46">
+        <v>0.001577049659941487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06749496842829222</v>
+        <v>0.03177063893754261</v>
       </c>
       <c r="C47">
-        <v>-0.1139582638865744</v>
+        <v>-0.1250135999086807</v>
       </c>
       <c r="D47">
-        <v>-0.05068151316625007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01863326720351257</v>
+      </c>
+      <c r="E47">
+        <v>-0.004529296636860778</v>
+      </c>
+      <c r="F47">
+        <v>-0.0005265137410964825</v>
+      </c>
+      <c r="G47">
+        <v>0.01072347082993123</v>
+      </c>
+      <c r="H47">
+        <v>0.01898262814120222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.003734629877774981</v>
+        <v>0.01217027337416841</v>
       </c>
       <c r="C48">
-        <v>-0.01883084436453186</v>
+        <v>-0.03397327452694437</v>
       </c>
       <c r="D48">
-        <v>-0.05229484576059151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05205173427727412</v>
+      </c>
+      <c r="E48">
+        <v>-0.07387489380182807</v>
+      </c>
+      <c r="F48">
+        <v>0.06510217634768767</v>
+      </c>
+      <c r="G48">
+        <v>-0.01821278112712859</v>
+      </c>
+      <c r="H48">
+        <v>0.00931740252989152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002915178575564101</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002286374198050204</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001702403844825325</v>
+      </c>
+      <c r="E49">
+        <v>0.001368999215531835</v>
+      </c>
+      <c r="F49">
+        <v>-0.004293164556838568</v>
+      </c>
+      <c r="G49">
+        <v>0.006552160367960939</v>
+      </c>
+      <c r="H49">
+        <v>-0.005901460095104066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03154552203054339</v>
+        <v>0.01507808429959011</v>
       </c>
       <c r="C50">
-        <v>-0.0593658965035864</v>
+        <v>-0.07598816330525804</v>
       </c>
       <c r="D50">
-        <v>-0.06483359860582308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03848895077616166</v>
+      </c>
+      <c r="E50">
+        <v>-0.04132817487729162</v>
+      </c>
+      <c r="F50">
+        <v>0.01103872148547804</v>
+      </c>
+      <c r="G50">
+        <v>-0.01054762680287968</v>
+      </c>
+      <c r="H50">
+        <v>0.0197184926584572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.005626036565808046</v>
+        <v>-0.004252894917387295</v>
       </c>
       <c r="C51">
-        <v>-0.007332647893937812</v>
+        <v>-0.01938158342011588</v>
       </c>
       <c r="D51">
-        <v>-0.04937762516949117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.02397397231563914</v>
+      </c>
+      <c r="E51">
+        <v>-0.06342434350734932</v>
+      </c>
+      <c r="F51">
+        <v>0.03388149927166619</v>
+      </c>
+      <c r="G51">
+        <v>-0.04158100746755847</v>
+      </c>
+      <c r="H51">
+        <v>0.000213847719838964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1027299064790618</v>
+        <v>0.0595736685936414</v>
       </c>
       <c r="C53">
-        <v>-0.1381919659325457</v>
+        <v>-0.1642357923731264</v>
       </c>
       <c r="D53">
-        <v>0.005288300144871559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01890675937786199</v>
+      </c>
+      <c r="E53">
+        <v>0.03132631061830916</v>
+      </c>
+      <c r="F53">
+        <v>0.0346116876525848</v>
+      </c>
+      <c r="G53">
+        <v>-0.007029821728565882</v>
+      </c>
+      <c r="H53">
+        <v>0.01174641774050369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.004532326831945417</v>
+        <v>0.01033885959269551</v>
       </c>
       <c r="C54">
-        <v>-0.0250977782335962</v>
+        <v>-0.0410527365821499</v>
       </c>
       <c r="D54">
-        <v>-0.08285149313053858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06290330815728895</v>
+      </c>
+      <c r="E54">
+        <v>-0.06515257572777182</v>
+      </c>
+      <c r="F54">
+        <v>0.01612977324366788</v>
+      </c>
+      <c r="G54">
+        <v>-0.02191948480616985</v>
+      </c>
+      <c r="H54">
+        <v>0.02616571114781254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08506277727856608</v>
+        <v>0.04188134597990376</v>
       </c>
       <c r="C55">
-        <v>-0.1140120813813438</v>
+        <v>-0.1287404727351337</v>
       </c>
       <c r="D55">
-        <v>0.000401286116888854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04859174973237008</v>
+      </c>
+      <c r="E55">
+        <v>0.01725752253246869</v>
+      </c>
+      <c r="F55">
+        <v>-0.002959994892987124</v>
+      </c>
+      <c r="G55">
+        <v>-0.0222319354472792</v>
+      </c>
+      <c r="H55">
+        <v>0.005079742190524896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1245744787972573</v>
+        <v>0.05985591817208611</v>
       </c>
       <c r="C56">
-        <v>-0.1637129012672097</v>
+        <v>-0.1938477873864723</v>
       </c>
       <c r="D56">
-        <v>-0.02139063129762435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04291541826911423</v>
+      </c>
+      <c r="E56">
+        <v>0.04507378512902274</v>
+      </c>
+      <c r="F56">
+        <v>-0.005489820740075683</v>
+      </c>
+      <c r="G56">
+        <v>-0.07109680658906993</v>
+      </c>
+      <c r="H56">
+        <v>0.02087347146787931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.007301461446962206</v>
+        <v>0.008845728258571339</v>
       </c>
       <c r="C58">
-        <v>-0.03046341836175618</v>
+        <v>-0.07523723229706514</v>
       </c>
       <c r="D58">
-        <v>-0.1802889871858075</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2138523142891251</v>
+      </c>
+      <c r="E58">
+        <v>-0.1365668722993655</v>
+      </c>
+      <c r="F58">
+        <v>0.129682784974763</v>
+      </c>
+      <c r="G58">
+        <v>-0.1513585238175415</v>
+      </c>
+      <c r="H58">
+        <v>0.09320150783084834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2049393592423801</v>
+        <v>0.2607856566222954</v>
       </c>
       <c r="C59">
-        <v>0.1214123903931085</v>
+        <v>0.05564071749994282</v>
       </c>
       <c r="D59">
-        <v>-0.04494814612367713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04475643080502069</v>
+      </c>
+      <c r="E59">
+        <v>0.003841876124780969</v>
+      </c>
+      <c r="F59">
+        <v>0.02533420410411722</v>
+      </c>
+      <c r="G59">
+        <v>-0.03967004016766675</v>
+      </c>
+      <c r="H59">
+        <v>-0.02861301129448988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1749823029870596</v>
+        <v>0.1525021007677891</v>
       </c>
       <c r="C60">
-        <v>-0.1107446568554641</v>
+        <v>-0.1667200556261257</v>
       </c>
       <c r="D60">
-        <v>-0.1239440602726457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01891315341033595</v>
+      </c>
+      <c r="E60">
+        <v>-0.1086575503014021</v>
+      </c>
+      <c r="F60">
+        <v>-0.1972326632559622</v>
+      </c>
+      <c r="G60">
+        <v>0.2311241864866476</v>
+      </c>
+      <c r="H60">
+        <v>-0.1724957228146491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01985738891312295</v>
+        <v>0.01292455570417521</v>
       </c>
       <c r="C61">
-        <v>-0.0603902584560959</v>
+        <v>-0.08225088254657366</v>
       </c>
       <c r="D61">
-        <v>-0.0717456930347822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03834888635715907</v>
+      </c>
+      <c r="E61">
+        <v>-0.07608105730754407</v>
+      </c>
+      <c r="F61">
+        <v>-0.005962811790572727</v>
+      </c>
+      <c r="G61">
+        <v>0.0009612883663734882</v>
+      </c>
+      <c r="H61">
+        <v>-0.001617662977637907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01003715848997234</v>
+        <v>0.01617446080457402</v>
       </c>
       <c r="C63">
-        <v>-0.0281379481124923</v>
+        <v>-0.04632079569109575</v>
       </c>
       <c r="D63">
-        <v>-0.07099772719199504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03164375575461031</v>
+      </c>
+      <c r="E63">
+        <v>-0.09327493657715522</v>
+      </c>
+      <c r="F63">
+        <v>0.02560224198080652</v>
+      </c>
+      <c r="G63">
+        <v>-0.002592119307925828</v>
+      </c>
+      <c r="H63">
+        <v>0.002136928564109205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04560876180425483</v>
+        <v>0.01531957435778663</v>
       </c>
       <c r="C64">
-        <v>-0.09617528839573308</v>
+        <v>-0.1046603695656076</v>
       </c>
       <c r="D64">
-        <v>-0.01443467862629014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003391547883388458</v>
+      </c>
+      <c r="E64">
+        <v>-0.03203255702336941</v>
+      </c>
+      <c r="F64">
+        <v>0.02490899832744996</v>
+      </c>
+      <c r="G64">
+        <v>0.03130767727992851</v>
+      </c>
+      <c r="H64">
+        <v>0.03528004253779142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02614360798443267</v>
+        <v>0.0267554178891578</v>
       </c>
       <c r="C65">
-        <v>-0.01728678680396012</v>
+        <v>-0.04530571639664157</v>
       </c>
       <c r="D65">
-        <v>-0.08983983783965509</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08461294295520691</v>
+      </c>
+      <c r="E65">
+        <v>-0.09012938010183397</v>
+      </c>
+      <c r="F65">
+        <v>-0.004458485269020228</v>
+      </c>
+      <c r="G65">
+        <v>0.06383238749949321</v>
+      </c>
+      <c r="H65">
+        <v>0.007465757790624698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02003328553930875</v>
+        <v>0.008051415148813331</v>
       </c>
       <c r="C66">
-        <v>-0.07542014889844342</v>
+        <v>-0.1109582110817926</v>
       </c>
       <c r="D66">
-        <v>-0.1194754531437203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08654252912920804</v>
+      </c>
+      <c r="E66">
+        <v>-0.1079380456516982</v>
+      </c>
+      <c r="F66">
+        <v>0.001641015502384829</v>
+      </c>
+      <c r="G66">
+        <v>-0.02087015893710923</v>
+      </c>
+      <c r="H66">
+        <v>0.01174663565270108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0151470241451356</v>
+        <v>0.01679023819284524</v>
       </c>
       <c r="C67">
-        <v>-0.02017312626900162</v>
+        <v>-0.03665688156601533</v>
       </c>
       <c r="D67">
-        <v>-0.04752513129513446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03708652303284902</v>
+      </c>
+      <c r="E67">
+        <v>-0.05176229212149544</v>
+      </c>
+      <c r="F67">
+        <v>-0.01475574430801833</v>
+      </c>
+      <c r="G67">
+        <v>-0.003121355315576555</v>
+      </c>
+      <c r="H67">
+        <v>0.032631395299801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2140688035505203</v>
+        <v>0.2788395794692525</v>
       </c>
       <c r="C68">
-        <v>0.1325794126368498</v>
+        <v>0.06784915732125978</v>
       </c>
       <c r="D68">
-        <v>-0.02467819373101642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03708635070840676</v>
+      </c>
+      <c r="E68">
+        <v>-0.01694092681531016</v>
+      </c>
+      <c r="F68">
+        <v>0.02668476588245718</v>
+      </c>
+      <c r="G68">
+        <v>-0.04160651000691103</v>
+      </c>
+      <c r="H68">
+        <v>3.217292676380254e-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04848546945338875</v>
+        <v>0.01520567478066607</v>
       </c>
       <c r="C69">
-        <v>-0.1181922240662122</v>
+        <v>-0.1108192492574226</v>
       </c>
       <c r="D69">
-        <v>-0.06462331254596897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01529959096555276</v>
+      </c>
+      <c r="E69">
+        <v>-0.01540430265557685</v>
+      </c>
+      <c r="F69">
+        <v>-0.009907761731292555</v>
+      </c>
+      <c r="G69">
+        <v>0.008170206366528926</v>
+      </c>
+      <c r="H69">
+        <v>-0.003772427134648008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.234374419221994</v>
+        <v>0.2721714639896342</v>
       </c>
       <c r="C71">
-        <v>0.154441691447702</v>
+        <v>0.08217943475682025</v>
       </c>
       <c r="D71">
-        <v>-0.01605476377826346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01273572586728621</v>
+      </c>
+      <c r="E71">
+        <v>0.006838310431310403</v>
+      </c>
+      <c r="F71">
+        <v>0.01141830316830509</v>
+      </c>
+      <c r="G71">
+        <v>-0.042945500355037</v>
+      </c>
+      <c r="H71">
+        <v>0.0296728039278857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09844965409200886</v>
+        <v>0.06401710676845689</v>
       </c>
       <c r="C72">
-        <v>-0.07962715617072406</v>
+        <v>-0.1245179254214214</v>
       </c>
       <c r="D72">
-        <v>-0.09189932300246258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03106279560783865</v>
+      </c>
+      <c r="E72">
+        <v>-0.08531924020969341</v>
+      </c>
+      <c r="F72">
+        <v>-0.01668214157266598</v>
+      </c>
+      <c r="G72">
+        <v>0.03644125374790071</v>
+      </c>
+      <c r="H72">
+        <v>-0.008088833308649193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1736538592084799</v>
+        <v>0.1586089079099234</v>
       </c>
       <c r="C73">
-        <v>-0.08714389975627482</v>
+        <v>-0.1690882808949722</v>
       </c>
       <c r="D73">
-        <v>-0.1795226242634427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.003311101323636592</v>
+      </c>
+      <c r="E73">
+        <v>-0.2495964985798089</v>
+      </c>
+      <c r="F73">
+        <v>-0.3166853642918296</v>
+      </c>
+      <c r="G73">
+        <v>0.3971532370809308</v>
+      </c>
+      <c r="H73">
+        <v>-0.1997442396744429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.09829982102927631</v>
+        <v>0.051890077589066</v>
       </c>
       <c r="C74">
-        <v>-0.1220041801816193</v>
+        <v>-0.1398409679810367</v>
       </c>
       <c r="D74">
-        <v>0.05264765593633656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04468798765409957</v>
+      </c>
+      <c r="E74">
+        <v>0.04395754846557264</v>
+      </c>
+      <c r="F74">
+        <v>0.03235914697396544</v>
+      </c>
+      <c r="G74">
+        <v>-0.001961651695286015</v>
+      </c>
+      <c r="H74">
+        <v>0.006674128581929824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2087891656513785</v>
+        <v>0.09777618826585728</v>
       </c>
       <c r="C75">
-        <v>-0.2165385364321649</v>
+        <v>-0.2598726849580454</v>
       </c>
       <c r="D75">
-        <v>0.02933499020095141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09452075445217199</v>
+      </c>
+      <c r="E75">
+        <v>0.1332975431302539</v>
+      </c>
+      <c r="F75">
+        <v>-0.05752953553219513</v>
+      </c>
+      <c r="G75">
+        <v>-0.1051842964555136</v>
+      </c>
+      <c r="H75">
+        <v>0.1144678730062359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1271060401187975</v>
+        <v>0.06036590240743203</v>
       </c>
       <c r="C76">
-        <v>-0.1472170675528163</v>
+        <v>-0.1774556523356709</v>
       </c>
       <c r="D76">
-        <v>-0.01067827449722717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04244300593047911</v>
+      </c>
+      <c r="E76">
+        <v>0.04664183998456726</v>
+      </c>
+      <c r="F76">
+        <v>-0.009216688147694529</v>
+      </c>
+      <c r="G76">
+        <v>-0.05152966390607521</v>
+      </c>
+      <c r="H76">
+        <v>0.03093458472377417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.003939920187041169</v>
+        <v>-0.004214725472173235</v>
       </c>
       <c r="C77">
-        <v>-0.08104882204996126</v>
+        <v>-0.1255687026993091</v>
       </c>
       <c r="D77">
-        <v>-0.2203346309318048</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.69163866435669</v>
+      </c>
+      <c r="E77">
+        <v>0.6299954093790218</v>
+      </c>
+      <c r="F77">
+        <v>-0.1391503587587089</v>
+      </c>
+      <c r="G77">
+        <v>0.1792826260668605</v>
+      </c>
+      <c r="H77">
+        <v>-0.0261113725443708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03116229939563252</v>
+        <v>0.02258244477823102</v>
       </c>
       <c r="C78">
-        <v>-0.08035527986006867</v>
+        <v>-0.09728743838046969</v>
       </c>
       <c r="D78">
-        <v>-0.1360839672874445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0585193594814467</v>
+      </c>
+      <c r="E78">
+        <v>-0.1049789611423853</v>
+      </c>
+      <c r="F78">
+        <v>0.0464889111543342</v>
+      </c>
+      <c r="G78">
+        <v>-0.1085647674753774</v>
+      </c>
+      <c r="H78">
+        <v>-0.02485099178249841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.108202178230145</v>
+        <v>0.05158991852057442</v>
       </c>
       <c r="C79">
-        <v>-0.2179407892290773</v>
+        <v>-0.2183339818670145</v>
       </c>
       <c r="D79">
-        <v>0.6513723159419958</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1441162308632364</v>
+      </c>
+      <c r="E79">
+        <v>0.1464786007345577</v>
+      </c>
+      <c r="F79">
+        <v>0.771711850314111</v>
+      </c>
+      <c r="G79">
+        <v>0.440274046592688</v>
+      </c>
+      <c r="H79">
+        <v>-0.08374563569187381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.006465421209328404</v>
+        <v>0.008624589796353839</v>
       </c>
       <c r="C80">
-        <v>-0.04566754720815659</v>
+        <v>-0.04621135255397889</v>
       </c>
       <c r="D80">
-        <v>-0.02840462480607521</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.002650547982306471</v>
+      </c>
+      <c r="E80">
+        <v>-0.06381721109812706</v>
+      </c>
+      <c r="F80">
+        <v>-0.01298051233233218</v>
+      </c>
+      <c r="G80">
+        <v>-0.007617124865969527</v>
+      </c>
+      <c r="H80">
+        <v>-0.08148284453252866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.09678800263290571</v>
+        <v>0.03315833781542951</v>
       </c>
       <c r="C81">
-        <v>-0.1416219807719079</v>
+        <v>-0.1580956879651499</v>
       </c>
       <c r="D81">
-        <v>0.07137745949916535</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06174786954411897</v>
+      </c>
+      <c r="E81">
+        <v>0.06974253963692062</v>
+      </c>
+      <c r="F81">
+        <v>0.0496990556555525</v>
+      </c>
+      <c r="G81">
+        <v>-0.07245991931602526</v>
+      </c>
+      <c r="H81">
+        <v>0.00901052891082035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.20160037300991</v>
+        <v>0.07805083193134195</v>
       </c>
       <c r="C82">
-        <v>-0.3077998586434936</v>
+        <v>-0.2919084805448612</v>
       </c>
       <c r="D82">
-        <v>0.05714240361911297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1838459581506083</v>
+      </c>
+      <c r="E82">
+        <v>0.1554150123154254</v>
+      </c>
+      <c r="F82">
+        <v>-0.1162152462024331</v>
+      </c>
+      <c r="G82">
+        <v>-0.1741176234225477</v>
+      </c>
+      <c r="H82">
+        <v>0.04169782342208855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01324291553508516</v>
+        <v>-0.006730972493574561</v>
       </c>
       <c r="C83">
-        <v>-0.04926689606197661</v>
+        <v>-0.01636873587570903</v>
       </c>
       <c r="D83">
-        <v>0.003905583357567991</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02787094392761795</v>
+      </c>
+      <c r="E83">
+        <v>0.09785011290799138</v>
+      </c>
+      <c r="F83">
+        <v>0.1007461456515153</v>
+      </c>
+      <c r="G83">
+        <v>-0.3735562023881183</v>
+      </c>
+      <c r="H83">
+        <v>-0.8588167273675684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001211359626118869</v>
+        <v>-0.004444736849229719</v>
       </c>
       <c r="C84">
-        <v>-0.004657989600746688</v>
+        <v>-0.01679016040555053</v>
       </c>
       <c r="D84">
-        <v>-0.009860501494412262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03516273053524811</v>
+      </c>
+      <c r="E84">
+        <v>-0.03816955682404312</v>
+      </c>
+      <c r="F84">
+        <v>0.03567187341802676</v>
+      </c>
+      <c r="G84">
+        <v>-0.05012675452351221</v>
+      </c>
+      <c r="H84">
+        <v>0.06691206523528537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1265778911238569</v>
+        <v>0.05528117103656864</v>
       </c>
       <c r="C85">
-        <v>-0.1561777303790553</v>
+        <v>-0.1787542755019635</v>
       </c>
       <c r="D85">
-        <v>0.08744142471626053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1152451335009679</v>
+      </c>
+      <c r="E85">
+        <v>0.04939024714091335</v>
+      </c>
+      <c r="F85">
+        <v>0.04473078719028634</v>
+      </c>
+      <c r="G85">
+        <v>-0.01439380363078797</v>
+      </c>
+      <c r="H85">
+        <v>0.02849056345698049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02357668558967529</v>
+        <v>0.01610094390428788</v>
       </c>
       <c r="C86">
-        <v>-0.01042543814170293</v>
+        <v>-0.04063967551900076</v>
       </c>
       <c r="D86">
-        <v>-0.07818376913028592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08954419357082018</v>
+      </c>
+      <c r="E86">
+        <v>-0.02553714294361879</v>
+      </c>
+      <c r="F86">
+        <v>0.04600033452415765</v>
+      </c>
+      <c r="G86">
+        <v>-0.0403166705575868</v>
+      </c>
+      <c r="H86">
+        <v>0.04614667816188179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02191369451921146</v>
+        <v>0.01116282598748923</v>
       </c>
       <c r="C87">
-        <v>-0.04072825705832683</v>
+        <v>-0.06891415662458183</v>
       </c>
       <c r="D87">
-        <v>-0.1159060941179777</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1071779370427672</v>
+      </c>
+      <c r="E87">
+        <v>-0.08506981293106282</v>
+      </c>
+      <c r="F87">
+        <v>0.04998035601065574</v>
+      </c>
+      <c r="G87">
+        <v>-0.07737605235871428</v>
+      </c>
+      <c r="H87">
+        <v>0.01598970539424724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04581025831847424</v>
+        <v>0.03408734715932617</v>
       </c>
       <c r="C88">
-        <v>-0.04966554093797422</v>
+        <v>-0.07146464296129496</v>
       </c>
       <c r="D88">
-        <v>-0.0105518703209441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01475103692176867</v>
+      </c>
+      <c r="E88">
+        <v>-0.03686988273832852</v>
+      </c>
+      <c r="F88">
+        <v>0.02054871605803524</v>
+      </c>
+      <c r="G88">
+        <v>0.02077607267392051</v>
+      </c>
+      <c r="H88">
+        <v>0.0005085710674982342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3492048495300338</v>
+        <v>0.3979022200759532</v>
       </c>
       <c r="C89">
-        <v>0.2908427077170849</v>
+        <v>0.162419312321522</v>
       </c>
       <c r="D89">
-        <v>-0.01626742728954991</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05119111331968393</v>
+      </c>
+      <c r="E89">
+        <v>0.005222500304345309</v>
+      </c>
+      <c r="F89">
+        <v>0.07678988816894908</v>
+      </c>
+      <c r="G89">
+        <v>-0.08216317258693132</v>
+      </c>
+      <c r="H89">
+        <v>-0.06151909898149888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2792263684085248</v>
+        <v>0.3233514627297561</v>
       </c>
       <c r="C90">
-        <v>0.2097512919424766</v>
+        <v>0.1034401686826834</v>
       </c>
       <c r="D90">
-        <v>-0.05978255075136081</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03396363530180365</v>
+      </c>
+      <c r="E90">
+        <v>-0.01022033045016259</v>
+      </c>
+      <c r="F90">
+        <v>-0.006173373811098842</v>
+      </c>
+      <c r="G90">
+        <v>-0.05450105729793087</v>
+      </c>
+      <c r="H90">
+        <v>0.005661570696795195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1331470666143205</v>
+        <v>0.06421222703041121</v>
       </c>
       <c r="C91">
-        <v>-0.1996038607709106</v>
+        <v>-0.201435942745952</v>
       </c>
       <c r="D91">
-        <v>0.09903957045491614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08263769775359237</v>
+      </c>
+      <c r="E91">
+        <v>0.1107248044396249</v>
+      </c>
+      <c r="F91">
+        <v>0.05395516037656905</v>
+      </c>
+      <c r="G91">
+        <v>-0.02480716028729547</v>
+      </c>
+      <c r="H91">
+        <v>-0.006471062793515114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2664153615119904</v>
+        <v>0.3365651070858837</v>
       </c>
       <c r="C92">
-        <v>0.2384155862068131</v>
+        <v>0.1439332492947656</v>
       </c>
       <c r="D92">
-        <v>0.03133077791147851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04381207371322294</v>
+      </c>
+      <c r="E92">
+        <v>0.04785644196846239</v>
+      </c>
+      <c r="F92">
+        <v>0.04658958537851388</v>
+      </c>
+      <c r="G92">
+        <v>0.004673093656869938</v>
+      </c>
+      <c r="H92">
+        <v>0.1222823846236474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2979252991823305</v>
+        <v>0.3297532926318498</v>
       </c>
       <c r="C93">
-        <v>0.2172677187155881</v>
+        <v>0.1180720002936081</v>
       </c>
       <c r="D93">
-        <v>0.02775745245224269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0262136227857321</v>
+      </c>
+      <c r="E93">
+        <v>0.006383329851720085</v>
+      </c>
+      <c r="F93">
+        <v>0.009611610116366333</v>
+      </c>
+      <c r="G93">
+        <v>0.01854244227598362</v>
+      </c>
+      <c r="H93">
+        <v>0.03252657582975473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2430831666439986</v>
+        <v>0.1193052825352445</v>
       </c>
       <c r="C94">
-        <v>-0.286102624068533</v>
+        <v>-0.3167355476512101</v>
       </c>
       <c r="D94">
-        <v>0.1197129900600246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2864101859970686</v>
+      </c>
+      <c r="E94">
+        <v>0.2095265910001641</v>
+      </c>
+      <c r="F94">
+        <v>-0.1647087125019089</v>
+      </c>
+      <c r="G94">
+        <v>-0.2587629901262357</v>
+      </c>
+      <c r="H94">
+        <v>0.120356739066259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0006933629463749734</v>
+        <v>0.01421376565882237</v>
       </c>
       <c r="C95">
-        <v>-0.05129723703738113</v>
+        <v>-0.07535743702328646</v>
       </c>
       <c r="D95">
-        <v>-0.1008364440920446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.154519565094296</v>
+      </c>
+      <c r="E95">
+        <v>0.03902927073472792</v>
+      </c>
+      <c r="F95">
+        <v>-0.0004872816770336672</v>
+      </c>
+      <c r="G95">
+        <v>0.0353732289508094</v>
+      </c>
+      <c r="H95">
+        <v>0.0581323672098216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002356931975364121</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009527608533273664</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0005617483332506463</v>
+      </c>
+      <c r="E97">
+        <v>-0.003285732482451783</v>
+      </c>
+      <c r="F97">
+        <v>8.735125433552505e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001870392177784752</v>
+      </c>
+      <c r="H97">
+        <v>0.005498667926189598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1452159916707999</v>
+        <v>0.1329906221680256</v>
       </c>
       <c r="C98">
-        <v>-0.1051173778972181</v>
+        <v>-0.1656133580587311</v>
       </c>
       <c r="D98">
-        <v>-0.128741649490207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01415381298893025</v>
+      </c>
+      <c r="E98">
+        <v>-0.1552476443623313</v>
+      </c>
+      <c r="F98">
+        <v>-0.2625449390968326</v>
+      </c>
+      <c r="G98">
+        <v>0.2954489156078261</v>
+      </c>
+      <c r="H98">
+        <v>-0.1716750371868922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003546081167898528</v>
+        <v>0.001166624066365533</v>
       </c>
       <c r="C101">
-        <v>-0.02288939840587796</v>
+        <v>-0.03962189297788884</v>
       </c>
       <c r="D101">
-        <v>-0.06086598353097704</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06387779571188219</v>
+      </c>
+      <c r="E101">
+        <v>-0.1214565163717768</v>
+      </c>
+      <c r="F101">
+        <v>0.04232534044129869</v>
+      </c>
+      <c r="G101">
+        <v>-0.01299798701981942</v>
+      </c>
+      <c r="H101">
+        <v>-0.04345323078813949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08158038698602124</v>
+        <v>0.01857725725887786</v>
       </c>
       <c r="C102">
-        <v>-0.162775411765627</v>
+        <v>-0.1332502383742725</v>
       </c>
       <c r="D102">
-        <v>-0.003845055975605518</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.07386323201067449</v>
+      </c>
+      <c r="E102">
+        <v>0.07600108591930478</v>
+      </c>
+      <c r="F102">
+        <v>-0.07261880309967404</v>
+      </c>
+      <c r="G102">
+        <v>-0.03837551117216054</v>
+      </c>
+      <c r="H102">
+        <v>-0.01350602305770833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
